--- a/data/trans_bre/P1422-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1422-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-0.4432296846744314</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.6497506742396798</v>
+        <v>-0.6497506742396802</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.4830101008346431</v>
@@ -627,7 +627,7 @@
         <v>-0.2539309304668095</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.5519084096241957</v>
+        <v>-0.5519084096241959</v>
       </c>
     </row>
     <row r="5">
@@ -638,20 +638,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.054185894313521</v>
+        <v>-1.918509963712222</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.346500284152215</v>
+        <v>-2.295238780034691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.019160989403454</v>
+        <v>-1.903991027384834</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.9235152706059496</v>
+        <v>-0.9108533247659525</v>
       </c>
     </row>
     <row r="6">
@@ -662,20 +662,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6102113483744686</v>
+        <v>0.6925428062204638</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.964009872661466</v>
+        <v>1.530372049436445</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1938110788884957</v>
+        <v>0.3481660568145065</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>3.261750761163671</v>
+        <v>2.19735687583421</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7248252017921565</v>
+        <v>1.319191465864618</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>-0.5680647527218177</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.7291559488497438</v>
+        <v>-0.7291559488497436</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-1</v>
@@ -705,7 +705,7 @@
         <v>-1</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.500484796225114</v>
+        <v>-0.5004847962251139</v>
       </c>
     </row>
     <row r="8">
@@ -716,18 +716,18 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.547343330548308</v>
+        <v>-1.232768567247882</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.046660715798637</v>
+        <v>-1.749563769112776</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.192883094878329</v>
+        <v>-2.031846325711979</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.8717144468687275</v>
+        <v>-0.858074933609439</v>
       </c>
     </row>
     <row r="9">
@@ -744,12 +744,12 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3326413179672191</v>
+        <v>0.3680812985645811</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>0.5642593773577218</v>
+        <v>0.8643874509303409</v>
       </c>
     </row>
     <row r="10">
@@ -790,20 +790,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.612431966507043</v>
+        <v>-1.592876986524758</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5483050460284813</v>
+        <v>-0.5331477614483388</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.801123132389252</v>
+        <v>-2.761151741400712</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.8075768662714563</v>
+        <v>-0.7988007030202844</v>
       </c>
     </row>
     <row r="12">
@@ -814,20 +814,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.980754345139538</v>
+        <v>2.195012910098979</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.175492831536628</v>
+        <v>4.407206253156256</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.174499236247696</v>
+        <v>1.349187377457361</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.199214125959532</v>
+        <v>3.932314810824248</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>0.8025784138442209</v>
+        <v>1.02118613187232</v>
       </c>
     </row>
     <row r="13">
@@ -848,7 +848,7 @@
         <v>-0.129227462474669</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-0.4352869903605621</v>
+        <v>-0.435286990360562</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.5152821258429692</v>
@@ -868,20 +868,20 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.646595497170396</v>
+        <v>-1.673949317347351</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.6347649949903519</v>
+        <v>-0.6657762230286617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.146455033094337</v>
+        <v>-1.123398732351033</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8645835707256004</v>
+        <v>-0.8887904671737616</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.7405585844738664</v>
+        <v>-0.7467309630557565</v>
       </c>
     </row>
     <row r="15">
@@ -892,20 +892,20 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1554090177628756</v>
+        <v>0.1041016754402385</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5177842947790641</v>
+        <v>0.5181593004210625</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1500615231618085</v>
+        <v>0.2115272504047411</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2930727180336116</v>
+        <v>0.2536240664699942</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>0.2665308509414385</v>
+        <v>0.3695346465984307</v>
       </c>
     </row>
     <row r="16">
@@ -926,7 +926,7 @@
         <v>0.3249846726212103</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1222772370246655</v>
+        <v>0.1222772370246657</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-0.29943273416465</v>
@@ -935,7 +935,7 @@
         <v>0.6020858526611191</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1127709498316978</v>
+        <v>0.112770949831698</v>
       </c>
     </row>
     <row r="17">
@@ -946,22 +946,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.562226505421455</v>
+        <v>-1.61966473900001</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4089211512967844</v>
+        <v>-0.4464002238149441</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.900173673157306</v>
+        <v>-0.8900413562939117</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.8450850154107138</v>
+        <v>-0.8845108547599697</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5996592605952701</v>
+        <v>-0.6738724280867328</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5331470989014064</v>
+        <v>-0.5090966811357109</v>
       </c>
     </row>
     <row r="18">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7516430643408065</v>
+        <v>0.6890722673255059</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.30412733064238</v>
+        <v>1.31030081427609</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9267272724655505</v>
+        <v>1.033994520251863</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.460261706085351</v>
+        <v>1.824320726085443</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6.848585611820597</v>
+        <v>8.281069382360297</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.529460340762064</v>
+        <v>1.838252042955371</v>
       </c>
     </row>
     <row r="19">
@@ -1019,7 +1019,7 @@
         <v>0.4177063492236978</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>4.377730662537983</v>
+        <v>4.377730662537984</v>
       </c>
     </row>
     <row r="20">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4585180761997256</v>
+        <v>0.4635129868978767</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.002773221459127</v>
+        <v>-1.1145821596895</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3226100834674641</v>
+        <v>0.2358968868909999</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
@@ -1050,13 +1050,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.603395428609861</v>
+        <v>1.768335728204382</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6983603240174978</v>
+        <v>0.7026498014163747</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.230023144838257</v>
+        <v>2.218357489738228</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
         <v>-0.04806903748973664</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.2581475028263858</v>
+        <v>-0.258147502826386</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>-0.2717745309363364</v>
@@ -1089,7 +1089,7 @@
         <v>-0.07545778306427604</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>-0.1979811471884118</v>
+        <v>-0.197981147188412</v>
       </c>
     </row>
     <row r="23">
@@ -1100,22 +1100,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7533089518287531</v>
+        <v>-0.7519750521090648</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4005654473814823</v>
+        <v>-0.4767113212355795</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7651015155753843</v>
+        <v>-0.7187666519501176</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.5714572856371523</v>
+        <v>-0.5787950596385603</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5106814879551456</v>
+        <v>-0.5660858099454161</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4586562304073435</v>
+        <v>-0.4471483458540819</v>
       </c>
     </row>
     <row r="24">
@@ -1126,22 +1126,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2103383290693488</v>
+        <v>0.1740820549217764</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3981876636207367</v>
+        <v>0.3555852728904351</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1155569700072421</v>
+        <v>0.2127326524824392</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.3519934314175451</v>
+        <v>0.2584867265817221</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9537473085108145</v>
+        <v>0.8575232435803292</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1150664998337835</v>
+        <v>0.2144932695634169</v>
       </c>
     </row>
     <row r="25">
